--- a/DataScience/Models/ModelSensor/Sensor_Datas.xlsx
+++ b/DataScience/Models/ModelSensor/Sensor_Datas.xlsx
@@ -16,29 +16,36 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>mode</t>
+    <t>HelloSensor</t>
   </si>
   <si>
-    <t>per</t>
+    <t>Time</t>
   </si>
   <si>
-    <t>time</t>
+    <t>Per</t>
   </si>
   <si>
-    <t>HelloSensor</t>
+    <t>Mode</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,7 +56,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -57,13 +64,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,20 +396,20 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -395,7 +420,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1"/>
     </row>
